--- a/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0155F9-043B-0D45-A31D-BBA5DB0DC392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4600" yWindow="-16460" windowWidth="24880" windowHeight="15360" xr2:uid="{C90727F0-5696-414D-9D96-4E36474AE6EE}"/>
+    <workbookView xWindow="-4605" yWindow="-16455" windowWidth="24885" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -531,20 +530,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95187E78-8FC3-DF42-A1A2-F1615CBF518E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -552,329 +551,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>40</v>

--- a/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>speaker_amplifier</t>
   </si>
   <si>
-    <t xml:space="preserve">electric_fan </t>
-  </si>
-  <si>
     <t>stove_and_kitchen_hood_electric</t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>lighting</t>
   </si>
   <si>
-    <t>refrigerator</t>
-  </si>
-  <si>
-    <t>freezer</t>
-  </si>
-  <si>
     <t>refrigerator_freezer_combi</t>
   </si>
   <si>
@@ -163,6 +154,9 @@
   </si>
   <si>
     <t>no_technology</t>
+  </si>
+  <si>
+    <t>electric_fan</t>
   </si>
 </sst>
 </file>
@@ -531,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -556,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +662,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +718,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +726,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +750,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +774,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +782,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +790,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +798,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +806,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +814,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +822,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +830,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +838,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +846,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,23 +854,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -894,6 +872,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1098,17 +1087,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEC492D-8B16-45BA-A385-06B5DCC1008B}">
   <ds:schemaRefs>
@@ -1118,6 +1096,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F4CA54-B082-4468-801B-9DC100DDF51B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832B8CBA-743A-46BE-8F61-4EFAB050672F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1134,21 +1129,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F4CA54-B082-4468-801B-9DC100DDF51B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\FLEX\data\input_behavior\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B178C004-97E9-CB44-B89A-BCD6B1FFFBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4605" yWindow="-16455" windowWidth="24885" windowHeight="15360"/>
+    <workbookView xWindow="18340" yWindow="1180" windowWidth="10000" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -94,12 +95,6 @@
   </si>
   <si>
     <t>coffee_machine</t>
-  </si>
-  <si>
-    <t>tumble_dryer</t>
-  </si>
-  <si>
-    <t>washing_machine</t>
   </si>
   <si>
     <t>washer_dryer_combi</t>
@@ -162,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -524,36 +519,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -569,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -577,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -585,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -593,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -601,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -609,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -617,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -625,15 +620,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -641,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -649,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -657,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -665,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -673,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -681,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -689,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -697,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -705,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -713,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -721,7 +716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -729,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -737,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -745,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -753,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -761,7 +756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -769,7 +764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -777,23 +772,23 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -801,7 +796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -809,7 +804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -817,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -825,7 +820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -833,28 +828,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -863,26 +842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001383FD7952F44C4AA66F138C1496F932" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4511c60809de47fd61668c7a2fa421c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed526690-1b82-4476-9598-c0eeafad58f9" xmlns:ns3="f971c2dd-4979-4752-97a1-eb062e2c22bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113b7667aea05225525c2a1f4252ac59" ns2:_="" ns3:_="">
     <xsd:import namespace="ed526690-1b82-4476-9598-c0eeafad58f9"/>
@@ -1087,32 +1046,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEC492D-8B16-45BA-A385-06B5DCC1008B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F4CA54-B082-4468-801B-9DC100DDF51B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed526690-1b82-4476-9598-c0eeafad58f9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{832B8CBA-743A-46BE-8F61-4EFAB050672F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1129,4 +1083,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEC492D-8B16-45BA-A385-06B5DCC1008B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F4CA54-B082-4468-801B-9DC100DDF51B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f971c2dd-4979-4752-97a1-eb062e2c22bf"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed526690-1b82-4476-9598-c0eeafad58f9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
+++ b/data/input_behavior/BehaviorScenario_Info_Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/FLEX/data/input_behavior/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B178C004-97E9-CB44-B89A-BCD6B1FFFBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84985A-B85D-F14A-B33B-C6E08DFE449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18340" yWindow="1180" windowWidth="10000" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,15 +1047,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="f971c2dd-4979-4752-97a1-eb062e2c22bf" xsi:nil="true"/>
@@ -1064,6 +1055,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1086,14 +1086,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEC492D-8B16-45BA-A385-06B5DCC1008B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64F4CA54-B082-4468-801B-9DC100DDF51B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1108,4 +1100,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CEC492D-8B16-45BA-A385-06B5DCC1008B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>